--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3751.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3751.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.245050268841124</v>
+        <v>0.750068724155426</v>
       </c>
       <c r="B1">
-        <v>2.534417559009369</v>
+        <v>1.157423138618469</v>
       </c>
       <c r="C1">
-        <v>4.428142447657366</v>
+        <v>3.547337055206299</v>
       </c>
       <c r="D1">
-        <v>3.278928995445294</v>
+        <v>2.257123231887817</v>
       </c>
       <c r="E1">
-        <v>1.156827702806677</v>
+        <v>0.8098844885826111</v>
       </c>
     </row>
   </sheetData>
